--- a/inst/extdata/MSF-outbreak-intersectional-dict.xlsx
+++ b/inst/extdata/MSF-outbreak-intersectional-dict.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="9"/>
@@ -23,6 +23,9 @@
     <sheet name="Measles_settings" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr calcMode="manual"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -650,13 +653,13 @@
     <t>sex_patient</t>
   </si>
   <si>
-    <t>adm1_residencecurrent</t>
-  </si>
-  <si>
-    <t>adm2_residencecurrent</t>
-  </si>
-  <si>
-    <t>adm3_residencecurrent</t>
+    <t>adm1_residencecurent</t>
+  </si>
+  <si>
+    <t>adm2_residencecurent</t>
+  </si>
+  <si>
+    <t>adm3_residencecurent</t>
   </si>
   <si>
     <t xml:space="preserve">select_one origin</t>
